--- a/data/trans_dic/P32E$bar_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P32E$bar_2023-Estudios-trans_dic.xlsx
@@ -506,7 +506,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consumió alcohol en atracón (Binge drinking) más de una vez al mes el último año, al menos, en bares, pub o restaurantes (tasa de respuesta: 100,0%)</t>
+          <t>Población que consumió alcohol en las últimas 2 semanas que, en el último año, ha consumido alcohol en exceso más de una vez al mes en una misma ocasión (Binge drinking), al menos, en bares, pub o restaurantes (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -818,7 +818,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consumió alcohol en atracón (Binge drinking) más de una vez al mes el último año, al menos, en bares, pub o restaurantes (tasa de respuesta: 100,0%)</t>
+          <t>Población que consumió alcohol en las últimas 2 semanas que, en el último año, ha consumido alcohol en exceso más de una vez al mes en una misma ocasión (Binge drinking), al menos, en bares, pub o restaurantes (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P32E$bar_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P32E$bar_2023-Estudios-trans_dic.xlsx
@@ -567,10 +567,10 @@
         <v>0.4349344900784833</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.6283941393448584</v>
+        <v>0.6283941393448583</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.4671604196370188</v>
+        <v>0.4671604196370189</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2825784323030026</v>
+        <v>0.2652670925844082</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1853857623748553</v>
+        <v>0.1560559581930692</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3064791765066469</v>
+        <v>0.3149257475247175</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.60821476505866</v>
+        <v>0.6203776714604523</v>
       </c>
       <c r="D6" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.6410821721402267</v>
+        <v>0.6206005316176948</v>
       </c>
     </row>
     <row r="7">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.7238574522127497</v>
+        <v>0.7238574522127498</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.6694773887054641</v>
+        <v>0.6694773887054642</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.7117135060243801</v>
+        <v>0.71171350602438</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.6059055488091261</v>
+        <v>0.6121317598507583</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4883714017328918</v>
+        <v>0.4754018836046788</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.6159328368198742</v>
+        <v>0.6157395398929332</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8199484193752277</v>
+        <v>0.8111178233979608</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8144443979409763</v>
+        <v>0.8076960951729635</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7980251772883467</v>
+        <v>0.795243226013685</v>
       </c>
     </row>
     <row r="10">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.6585609946473545</v>
+        <v>0.6585609946473544</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.7907218195643697</v>
+        <v>0.7907218195643698</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.7254379009421091</v>
+        <v>0.7254379009421092</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.4571457521129158</v>
+        <v>0.4506944745608386</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.5519553105813144</v>
+        <v>0.5559320499125605</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.5748793388507176</v>
+        <v>0.5841913984068938</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8342019903842134</v>
+        <v>0.8224330610696473</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9252041654612306</v>
+        <v>0.9166085967368302</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8243728487400349</v>
+        <v>0.8481741712119399</v>
       </c>
     </row>
     <row r="13">
@@ -732,7 +732,7 @@
         <v>0.6604555267718886</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.7183866538100313</v>
+        <v>0.7183866538100314</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.6768620172492771</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.571382371521167</v>
+        <v>0.5703275546439913</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.5923398200468455</v>
+        <v>0.5864393870647535</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.6086043350554249</v>
+        <v>0.6081479807003711</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7401482185790873</v>
+        <v>0.7349496468120145</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8179782361125953</v>
+        <v>0.8239238298352861</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7427450047831523</v>
+        <v>0.7389069913087617</v>
       </c>
     </row>
     <row r="16">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>8241</v>
+        <v>7736</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1081</v>
+        <v>910</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>10725</v>
+        <v>11020</v>
       </c>
     </row>
     <row r="7">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>17738</v>
+        <v>18093</v>
       </c>
       <c r="D7" s="6" t="n">
         <v>5829</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>22433</v>
+        <v>21717</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>63342</v>
+        <v>63993</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>14679</v>
+        <v>14290</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>82904</v>
+        <v>82878</v>
       </c>
     </row>
     <row r="11">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>85718</v>
+        <v>84795</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>24481</v>
+        <v>24278</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>107413</v>
+        <v>107039</v>
       </c>
     </row>
     <row r="12">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>12306</v>
+        <v>12132</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>15221</v>
+        <v>15330</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>31328</v>
+        <v>31836</v>
       </c>
     </row>
     <row r="15">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>22456</v>
+        <v>22139</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>25513</v>
+        <v>25276</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>44924</v>
+        <v>46221</v>
       </c>
     </row>
     <row r="16">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>91778</v>
+        <v>91608</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>37592</v>
+        <v>37217</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>136380</v>
+        <v>136278</v>
       </c>
     </row>
     <row r="19">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>118886</v>
+        <v>118051</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>51911</v>
+        <v>52289</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>166439</v>
+        <v>165579</v>
       </c>
     </row>
     <row r="20">
